--- a/downloaded_files/MDPS217_Lecture-35510.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35510.xlsx
@@ -654,7 +654,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.610625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.380625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -991,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45918.5850415856</x:v>
+        <x:v>45919.3284298611</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>

--- a/downloaded_files/MDPS217_Lecture-35510.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35510.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,15 +105,6 @@
     <x:t>Omar Khaled Mokbel</x:t>
   </x:si>
   <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240198</x:t>
   </x:si>
   <x:si>
@@ -168,6 +159,15 @@
     <x:t>marcos thabet norus thabet</x:t>
   </x:si>
   <x:si>
+    <x:t>1230253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان كريم محمد أحمد زايد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220207</x:t>
   </x:si>
   <x:si>
@@ -175,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>moataz mohamed sabry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هنداوي محمد هنداوي درويش</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hendawy Mohamed Hendawy Darwish</x:t>
   </x:si>
   <x:si>
     <x:t>1240165</x:t>
@@ -344,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -652,9 +643,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.610625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.380625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -767,7 +758,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4188322917</x:v>
+        <x:v>45927.437863044</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -831,7 +822,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.7243201389</x:v>
+        <x:v>45927.5877516204</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -863,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4240528588</x:v>
+        <x:v>45927.4167604167</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -991,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.3284298611</x:v>
+        <x:v>45907.6772058681</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6772058681</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45907.4200609144</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4200609144</x:v>
+        <x:v>45907.6776242245</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6776242245</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45927.6643246875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1247,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.70433125</x:v>
+        <x:v>45909.7056479167</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.7056479167</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45909.7059148148</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.7059148148</x:v>
+        <x:v>45909.4350654282</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1366,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4350654282</x:v>
+        <x:v>45907.4204270833</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1392,38 +1383,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.4204270833</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Lecture-35510.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35510.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,24 +193,6 @@
   </x:si>
   <x:si>
     <x:t>Yousab nageh barbary yousef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوساب يوسف اسحق برسوم حنين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssab Youssef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
   <x:si>
     <x:t>1220297</x:t>
@@ -335,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1238,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.7056479167</x:v>
+        <x:v>45927.7167216435</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1302,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.7059148148</x:v>
+        <x:v>45907.4204270833</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1319,70 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45909.4350654282</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.4204270833</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Lecture-35510.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35510.xlsx
@@ -72,7 +72,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
@@ -81,7 +81,7 @@
     <x:t>1240194</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+    <x:t>زياد عمر احمد عمر محمود السيد</x:t>
   </x:si>
   <x:si>
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>

--- a/downloaded_files/MDPS217_Lecture-35510.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35510.xlsx
@@ -1307,11 +1307,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(9:10)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(9:10)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(9:10)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
